--- a/boss_info.xlsx
+++ b/boss_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyf13\Desktop\Projects\auto_xiuxian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61003075-3815-4D80-B34A-71AD5890B084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2913D3C7-4037-4A21-8FA5-C89874D2F344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6531" yWindow="3094" windowWidth="11589" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6651" yWindow="3163" windowWidth="16295" windowHeight="13123" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="93">
   <si>
     <t>首领名称</t>
   </si>
@@ -232,6 +232,78 @@
   </si>
   <si>
     <t>yu_yi_gu_fa_shi</t>
+  </si>
+  <si>
+    <t>hei_yu_gu_mo</t>
+  </si>
+  <si>
+    <t>黑羽古魔</t>
+  </si>
+  <si>
+    <t>ji_mie_gu_xiu</t>
+  </si>
+  <si>
+    <t>寂灭古修</t>
+  </si>
+  <si>
+    <t>bing_po_gu_xiu</t>
+  </si>
+  <si>
+    <t>冰魄古修</t>
+  </si>
+  <si>
+    <t>huang_jian_gu_xiu</t>
+  </si>
+  <si>
+    <t>荒剑古修</t>
+  </si>
+  <si>
+    <t>yin_lang_yao_xiu</t>
+  </si>
+  <si>
+    <t>银狼妖修</t>
+  </si>
+  <si>
+    <t>xian_yue_gu_xiu</t>
+  </si>
+  <si>
+    <t>仙月古修</t>
+  </si>
+  <si>
+    <t>chi_long_ming_jiang</t>
+  </si>
+  <si>
+    <t>赤龙冥将</t>
+  </si>
+  <si>
+    <t>kui_lian_gu_xiu</t>
+  </si>
+  <si>
+    <t>傀炼古修</t>
+  </si>
+  <si>
+    <t>yao_yuan_hu_mo</t>
+  </si>
+  <si>
+    <t>妖原狐魔</t>
+  </si>
+  <si>
+    <t>hu_jie_xian_kui</t>
+  </si>
+  <si>
+    <t>护界仙傀</t>
+  </si>
+  <si>
+    <t>gu_yan_yao_qin</t>
+  </si>
+  <si>
+    <t>古焰妖禽</t>
+  </si>
+  <si>
+    <t>chi_mo_jiang</t>
+  </si>
+  <si>
+    <t>赤魔将</t>
   </si>
 </sst>
 </file>
@@ -552,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1051,13 +1123,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>17</v>
@@ -1066,47 +1138,47 @@
         <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1">
-        <v>324</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="1">
-        <v>319</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>28</v>
@@ -1115,21 +1187,21 @@
         <v>14</v>
       </c>
       <c r="G24" s="1">
-        <v>239</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>28</v>
@@ -1138,29 +1210,305 @@
         <v>11</v>
       </c>
       <c r="G25" s="1">
-        <v>239</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="1">
         <v>224</v>
       </c>
     </row>

--- a/boss_info.xlsx
+++ b/boss_info.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyf13\Desktop\Projects\auto_xiuxian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2913D3C7-4037-4A21-8FA5-C89874D2F344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630E0596-B62E-43E1-AA9B-56434BBE4AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6651" yWindow="3163" windowWidth="16295" windowHeight="13123" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="231" yWindow="3600" windowWidth="22003" windowHeight="11914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="人界" sheetId="1" r:id="rId1"/>
+    <sheet name="灵界" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="109">
   <si>
     <t>首领名称</t>
   </si>
@@ -304,6 +305,54 @@
   </si>
   <si>
     <t>赤魔将</t>
+  </si>
+  <si>
+    <t>玄鸟天女</t>
+  </si>
+  <si>
+    <t>xuan_niao_tiao_nv</t>
+  </si>
+  <si>
+    <t>断剑鬼魔</t>
+  </si>
+  <si>
+    <t>duan_jian_gui_mo</t>
+  </si>
+  <si>
+    <t>九幽傀魔</t>
+  </si>
+  <si>
+    <t>jiu_you_kui_mo</t>
+  </si>
+  <si>
+    <t>洛书真仙</t>
+  </si>
+  <si>
+    <t>luo_shu_zhen_xian</t>
+  </si>
+  <si>
+    <t>魔天剑圣</t>
+  </si>
+  <si>
+    <t>mo_tian_jian_sheng</t>
+  </si>
+  <si>
+    <t>欲界魔尊</t>
+  </si>
+  <si>
+    <t>yu_jie_mo_zun</t>
+  </si>
+  <si>
+    <t>河洛鲛王</t>
+  </si>
+  <si>
+    <t>he_luo_jiao_wang</t>
+  </si>
+  <si>
+    <t>剑魂天魔</t>
+  </si>
+  <si>
+    <t>jian_hun_tian_mo</t>
   </si>
 </sst>
 </file>
@@ -626,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1515,4 +1564,230 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394BF15A-D4C5-4DBB-A35B-7EFBFC85100D}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.23046875" customWidth="1"/>
+    <col min="2" max="2" width="18.53515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1">
+        <v>614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/boss_info.xlsx
+++ b/boss_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyf13\Desktop\Projects\auto_xiuxian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630E0596-B62E-43E1-AA9B-56434BBE4AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E20634-343D-4780-9359-46DA6F822ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="231" yWindow="3600" windowWidth="22003" windowHeight="11914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1791" yWindow="3334" windowWidth="20778" windowHeight="11915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人界" sheetId="1" r:id="rId1"/>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1570,7 +1570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394BF15A-D4C5-4DBB-A35B-7EFBFC85100D}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
